--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/dynamic_field.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/dynamic_field.xlsx
@@ -306,10 +306,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -400,16 +399,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -435,227 +434,227 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="1090.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="2546.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="558.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="G2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="1330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="178.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="G3" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="431.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="254.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="G4" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="634.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/dynamic_field.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/dynamic_field.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -144,6 +144,9 @@
 		"active": true
 	}
 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">10002</t>
@@ -434,8 +437,8 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,9 +489,8 @@
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="1330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,23 +498,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="431.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,23 +521,22 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="634.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,23 +544,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,47 +567,45 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,47 +613,45 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
